--- a/LIACSserver/dashboard/excelfiles/professors_death_country.xlsx
+++ b/LIACSserver/dashboard/excelfiles/professors_death_country.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G428"/>
+  <dimension ref="A1:G412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +572,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Frankrijk</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -588,24 +588,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>46.227638</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>2.213749</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -621,17 +621,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.213749</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -720,24 +720,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.213749</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Frankrijk</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -753,17 +753,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>46.227638</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>2.213749</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -877,7 +877,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -885,17 +885,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -910,11 +910,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -939,11 +939,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -968,40 +968,28 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>België</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>1606</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>17</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1009,7 +997,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1017,17 +1005,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1030,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1067,23 +1055,35 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>België</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1606</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>17</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1092,11 +1092,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1606</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1121,15 +1121,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1137,24 +1137,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1162,27 +1162,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>17</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1191,11 +1179,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1224,11 +1212,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1261,7 +1249,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1286,7 +1274,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1294,20 +1282,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>17</v>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1622</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1323,17 +1323,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.213749</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1377,11 +1377,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1472,7 +1472,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1542,11 +1542,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1608,11 +1608,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1670,7 +1670,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Denemarken</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1686,17 +1686,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>56.26392</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>9.501785</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1773,11 +1773,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>1642</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1802,7 +1802,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Denemarken</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1643</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1818,17 +1818,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>56.26392</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>9.501785</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -1839,11 +1839,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1938,11 +1938,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1642</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1971,11 +1971,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1643</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2004,11 +2004,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1651</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2037,11 +2037,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>1652</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2103,11 +2103,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2231,15 +2231,15 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Frankrijk</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2247,17 +2247,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>46.227638</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>2.213749</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1661</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2334,11 +2334,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2396,7 +2396,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1665</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2412,17 +2412,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2.213749</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>1667</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2499,11 +2499,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2532,11 +2532,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2561,7 +2561,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Frankrijk</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2577,17 +2577,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>46.227638</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>2.213749</t>
         </is>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1665</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1667</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2697,11 +2697,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2726,15 +2726,15 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2742,17 +2742,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.213749</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -2763,11 +2763,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>1679</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2792,7 +2792,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2808,17 +2808,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2.213749</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -2829,11 +2829,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2862,11 +2862,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2891,7 +2891,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nederlands-Indië</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2899,15 +2899,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>17</v>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2920,7 +2932,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1675</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2949,11 +2961,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>1689</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2982,11 +2994,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3011,15 +3023,15 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3027,17 +3039,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
@@ -3048,11 +3060,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1679</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -3085,7 +3097,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -3114,11 +3126,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -3151,11 +3163,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1701</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3184,11 +3196,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3213,15 +3225,15 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3246,15 +3258,15 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3279,15 +3291,15 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3308,33 +3320,33 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -3349,11 +3361,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3378,15 +3390,15 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3415,27 +3427,15 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>17</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1701</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>1716</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>1719</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -3576,11 +3576,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -3609,11 +3609,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3675,11 +3675,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>1725</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3704,7 +3704,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Schotland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3712,15 +3712,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>1729</t>
         </is>
       </c>
       <c r="D101" t="n">
         <v>18</v>
       </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3733,7 +3745,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>1730</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3766,7 +3778,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3795,11 +3807,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>1734</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -3828,11 +3840,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>1737</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -3865,7 +3877,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -3898,7 +3910,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1739</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3931,7 +3943,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3964,7 +3976,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>1741</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3993,11 +4005,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -4030,7 +4042,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>1744</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -4059,11 +4071,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>1745</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -4096,7 +4108,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -4125,11 +4137,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1755</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -4158,11 +4170,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>1757</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -4195,7 +4207,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1739</t>
+          <t>1758</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -4224,11 +4236,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>1759</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -4261,7 +4273,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1741</t>
+          <t>1760</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -4294,7 +4306,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -4323,11 +4335,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1744</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -4356,11 +4368,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -4393,7 +4405,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -4426,7 +4438,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1755</t>
+          <t>1766</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -4459,7 +4471,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>1768</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -4492,7 +4504,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -4521,11 +4533,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>1777</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -4554,11 +4566,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -4587,11 +4599,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>1779</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -4620,11 +4632,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>1780</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -4657,7 +4669,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>1781</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -4686,11 +4698,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>1783</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4719,11 +4731,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1766</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -4756,7 +4768,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>1785</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -4789,7 +4801,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1787</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -4818,11 +4830,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1793</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -4851,11 +4863,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -4888,7 +4900,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1795</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -4917,11 +4929,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -4954,7 +4966,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -4983,11 +4995,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -5016,15 +5028,15 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5053,11 +5065,11 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1785</t>
+          <t>1805</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5082,15 +5094,15 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1787</t>
+          <t>1807</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5111,7 +5123,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Zwitserland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -5119,25 +5131,25 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1792</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>49.817492</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>15.472962</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -5148,15 +5160,15 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>1811</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5185,11 +5197,11 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5214,15 +5226,15 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1795</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5251,11 +5263,11 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>1816</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5280,15 +5292,15 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5313,15 +5325,15 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5346,11 +5358,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1820</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -5383,7 +5395,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>1821</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -5416,7 +5428,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>1822</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -5449,7 +5461,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -5482,7 +5494,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>1825</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -5511,11 +5523,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -5544,11 +5556,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -5581,7 +5593,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1816</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -5614,7 +5626,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1833</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -5643,11 +5655,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -5676,11 +5688,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1835</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -5713,7 +5725,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -5742,11 +5754,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>1837</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -5779,7 +5791,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -5812,7 +5824,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -5841,11 +5853,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>1840</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -5878,7 +5890,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -5907,11 +5919,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -5940,11 +5952,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1833</t>
+          <t>1846</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -5977,7 +5989,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1834</t>
+          <t>1847</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -6010,7 +6022,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>1835</t>
+          <t>1848</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -6043,7 +6055,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1849</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -6072,11 +6084,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1837</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -6105,11 +6117,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>1854</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -6134,7 +6146,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -6142,7 +6154,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -6150,17 +6162,17 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2.213749</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6187,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -6200,7 +6212,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -6208,7 +6220,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -6216,17 +6228,17 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
@@ -6237,11 +6249,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -6270,11 +6282,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -6303,11 +6315,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -6340,7 +6352,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>1863</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -6373,7 +6385,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -6406,7 +6418,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -6431,15 +6443,15 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -6447,17 +6459,17 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
@@ -6468,11 +6480,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -6501,11 +6513,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -6538,7 +6550,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -6563,7 +6575,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -6571,7 +6583,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1870</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -6579,17 +6591,17 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6616,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -6633,11 +6645,11 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1872</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -6666,11 +6678,11 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -6703,7 +6715,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>1863</t>
+          <t>1877</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -6736,7 +6748,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -6769,7 +6781,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -6794,7 +6806,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -6802,7 +6814,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -6810,17 +6822,17 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -6831,11 +6843,11 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1881</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -6864,11 +6876,11 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1882</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -6901,7 +6913,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -6930,11 +6942,11 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>1884</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -6963,11 +6975,11 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -6992,15 +7004,15 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -7008,17 +7020,17 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
@@ -7029,11 +7041,11 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1874</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -7066,7 +7078,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1877</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -7099,7 +7111,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -7128,11 +7140,11 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -7161,11 +7173,11 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1880</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -7198,7 +7210,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -7231,7 +7243,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -7260,11 +7272,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -7293,11 +7305,11 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -7326,11 +7338,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -7355,15 +7367,15 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -7371,17 +7383,17 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -7396,7 +7408,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1886</t>
+          <t>1899</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -7429,11 +7441,11 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -7458,15 +7470,15 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -7487,35 +7499,23 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Nederlands-Indië</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>19</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7524,15 +7524,15 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -7553,33 +7553,33 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
@@ -7590,15 +7590,15 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -7619,35 +7619,23 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Italië</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1904</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>19</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7656,15 +7644,15 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -7689,15 +7677,15 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1906</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -7722,15 +7710,15 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -7755,15 +7743,15 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -7788,11 +7776,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>1909</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -7821,11 +7809,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -7850,23 +7838,35 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Nederlands-Indië</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="D227" t="n">
         <v>20</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7875,11 +7875,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -7904,15 +7904,15 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -7920,17 +7920,17 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -7941,11 +7941,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>1916</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -7970,36 +7970,48 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Italië</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="D231" t="n">
         <v>20</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -8007,17 +8019,17 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
@@ -8032,7 +8044,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -8061,11 +8073,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -8094,11 +8106,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -8127,11 +8139,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -8156,15 +8168,15 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -8172,17 +8184,17 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8209,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>1922</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -8230,7 +8242,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -8259,11 +8271,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -8288,15 +8300,15 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Zwitserland</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -8304,17 +8316,17 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>49.817492</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>15.472962</t>
         </is>
       </c>
     </row>
@@ -8325,11 +8337,11 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -8354,15 +8366,15 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -8370,17 +8382,17 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -8391,11 +8403,11 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -8424,11 +8436,11 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -8457,11 +8469,11 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -8494,7 +8506,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -8519,15 +8531,15 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -8535,17 +8547,17 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -8556,11 +8568,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>1932</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -8589,11 +8601,11 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -8622,11 +8634,11 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -8651,15 +8663,15 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Zwitserland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -8667,32 +8679,32 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>49.817492</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>15.472962</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -8700,17 +8712,17 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
@@ -8721,11 +8733,11 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -8754,11 +8766,11 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -8787,11 +8799,11 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -8816,35 +8828,23 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Zuid-Afrika</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="D257" t="n">
         <v>20</v>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -8948,35 +8948,23 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>1933</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="D261" t="n">
         <v>20</v>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8989,7 +8977,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -9018,11 +9006,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -9047,15 +9035,15 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -9063,17 +9051,17 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -9084,11 +9072,11 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -9113,15 +9101,15 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -9129,17 +9117,17 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
@@ -9150,11 +9138,11 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -9179,7 +9167,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Zuid-Afrika</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -9187,7 +9175,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -9204,11 +9192,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -9241,7 +9229,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -9270,11 +9258,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -9299,23 +9287,35 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="D272" t="n">
         <v>20</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -9353,15 +9353,15 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Zwitserland</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -9369,17 +9369,17 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>49.817492</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>15.472962</t>
         </is>
       </c>
     </row>
@@ -9390,11 +9390,11 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -9423,11 +9423,11 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -9452,15 +9452,15 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -9468,139 +9468,115 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Ierland</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="D278" t="n">
         <v>20</v>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="D279" t="n">
         <v>20</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="D280" t="n">
         <v>20</v>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>België</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="D281" t="n">
         <v>20</v>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9609,11 +9585,11 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -9638,35 +9614,23 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Indonesië</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="D283" t="n">
         <v>20</v>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9675,11 +9639,11 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -9704,15 +9668,15 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Zwitserland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -9720,52 +9684,40 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>49.817492</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>15.472962</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="D286" t="n">
         <v>20</v>
       </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9774,11 +9726,11 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -9803,69 +9755,69 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="D288" t="n">
         <v>20</v>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Ierland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="D289" t="n">
         <v>20</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Denemarken</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -9873,45 +9825,57 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>56.26392</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>9.501785</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>België</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="D291" t="n">
         <v>20</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nieuw Zeeland</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -9919,7 +9883,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -9936,11 +9900,11 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -9965,56 +9929,56 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Indonesië</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="D294" t="n">
         <v>20</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Australië</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="D295" t="n">
         <v>20</v>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -10023,11 +9987,11 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -10052,123 +10016,123 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="D297" t="n">
         <v>20</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="D298" t="n">
         <v>20</v>
       </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D299" t="n">
         <v>20</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D300" t="n">
         <v>20</v>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Denemarken</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -10176,32 +10140,32 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>56.26392</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>9.501785</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Denemarken</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -10209,73 +10173,73 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>56.26392</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>9.501785</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Nieuw-Zeeland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D303" t="n">
         <v>20</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>België</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D304" t="n">
         <v>20</v>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -10284,11 +10248,11 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -10313,7 +10277,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Australië</t>
+          <t>Indonesië</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -10321,7 +10285,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -10338,11 +10302,11 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -10371,11 +10335,11 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -10400,36 +10364,48 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D309" t="n">
         <v>20</v>
       </c>
-      <c r="E309" t="inlineStr"/>
-      <c r="F309" t="inlineStr"/>
-      <c r="G309" t="inlineStr"/>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -10437,24 +10413,24 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Griekenland</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -10462,7 +10438,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -10479,11 +10455,11 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -10508,15 +10484,15 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Denemarken</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -10524,17 +10500,17 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>56.26392</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>9.501785</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
@@ -10545,11 +10521,11 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -10574,23 +10550,35 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>België</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D315" t="n">
         <v>20</v>
       </c>
-      <c r="E315" t="inlineStr"/>
-      <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr"/>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -10603,7 +10591,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -10628,7 +10616,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Indonesië</t>
+          <t>Zweden</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -10636,15 +10624,27 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="D317" t="n">
         <v>20</v>
       </c>
-      <c r="E317" t="inlineStr"/>
-      <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr"/>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>SWE</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>60.128161</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>18.643501</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -10682,102 +10682,90 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>België</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D319" t="n">
         <v>20</v>
       </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D320" t="n">
         <v>20</v>
       </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Griekenland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D321" t="n">
         <v>20</v>
       </c>
-      <c r="E321" t="inlineStr"/>
-      <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr"/>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -10785,98 +10773,74 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D323" t="n">
         <v>20</v>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D324" t="n">
         <v>20</v>
       </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Denemarken</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -10884,17 +10848,17 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>56.26392</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>9.501785</t>
         </is>
       </c>
     </row>
@@ -10905,11 +10869,11 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -10934,15 +10898,15 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Zwitserland</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -10950,32 +10914,32 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>49.817492</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>15.472962</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Zweden</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -10983,78 +10947,78 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>60.128161</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>18.643501</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D329" t="n">
         <v>20</v>
       </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>België</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D330" t="n">
         <v>20</v>
       </c>
-      <c r="E330" t="inlineStr"/>
-      <c r="F330" t="inlineStr"/>
-      <c r="G330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -11062,7 +11026,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -11075,15 +11039,15 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Zwitserland</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -11091,24 +11055,24 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>49.817492</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>15.472962</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Frankrijk</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -11116,15 +11080,27 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D333" t="n">
         <v>20</v>
       </c>
-      <c r="E333" t="inlineStr"/>
-      <c r="F333" t="inlineStr"/>
-      <c r="G333" t="inlineStr"/>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>46.227638</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>2.213749</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -11133,11 +11109,11 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -11162,15 +11138,15 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Denemarken</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -11178,24 +11154,24 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>56.26392</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>9.501785</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -11203,7 +11179,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -11216,23 +11192,35 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D337" t="n">
         <v>20</v>
       </c>
-      <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr"/>
-      <c r="G337" t="inlineStr"/>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -11241,11 +11229,11 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -11270,61 +11258,61 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Zwitzerland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D339" t="n">
         <v>20</v>
       </c>
-      <c r="E339" t="inlineStr"/>
-      <c r="F339" t="inlineStr"/>
-      <c r="G339" t="inlineStr"/>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D340" t="n">
         <v>20</v>
       </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -11332,7 +11320,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -11349,11 +11337,11 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -11378,7 +11366,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -11386,7 +11374,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -11399,7 +11387,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Zwitserland</t>
+          <t>Spanje</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -11407,7 +11395,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -11415,32 +11403,32 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>49.817492</t>
+          <t>40.463667</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>15.472962</t>
+          <t>-3.74922</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -11448,65 +11436,53 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>2.213749</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D346" t="n">
         <v>20</v>
       </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Zwitserland</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -11514,24 +11490,24 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>49.817492</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>15.472962</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>België</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -11539,7 +11515,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -11552,15 +11528,15 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Frankrijk</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -11568,17 +11544,17 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>46.227638</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>2.213749</t>
         </is>
       </c>
     </row>
@@ -11589,11 +11565,11 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -11618,48 +11594,36 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="D351" t="n">
         <v>20</v>
       </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -11672,23 +11636,35 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="D353" t="n">
         <v>20</v>
       </c>
-      <c r="E353" t="inlineStr"/>
-      <c r="F353" t="inlineStr"/>
-      <c r="G353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -11697,11 +11673,11 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -11726,7 +11702,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Zwitserland</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -11734,20 +11710,32 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D355" t="n">
         <v>20</v>
       </c>
-      <c r="E355" t="inlineStr"/>
-      <c r="F355" t="inlineStr"/>
-      <c r="G355" t="inlineStr"/>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>49.817492</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>15.472962</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Spanje</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -11755,27 +11743,15 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D356" t="n">
         <v>20</v>
       </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>ESP</t>
-        </is>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>40.463667</t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>-3.74922</t>
-        </is>
-      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -11788,7 +11764,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -11813,15 +11789,15 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -11829,32 +11805,32 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>2.213749</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>België</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -11867,40 +11843,28 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Zwitserland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D360" t="n">
         <v>20</v>
       </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>CHE</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>49.817492</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>15.472962</t>
-        </is>
-      </c>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -11908,7 +11872,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D361" t="n">
@@ -11925,11 +11889,11 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -11954,28 +11918,40 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D363" t="n">
         <v>20</v>
       </c>
-      <c r="E363" t="inlineStr"/>
-      <c r="F363" t="inlineStr"/>
-      <c r="G363" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -11983,7 +11959,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -12000,11 +11976,11 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -12029,15 +12005,15 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Frankrijk</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -12045,45 +12021,57 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>46.227638</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>2.213749</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D367" t="n">
         <v>20</v>
       </c>
-      <c r="E367" t="inlineStr"/>
-      <c r="F367" t="inlineStr"/>
-      <c r="G367" t="inlineStr"/>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Zwitserland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -12091,27 +12079,15 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D368" t="n">
         <v>20</v>
       </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>CHE</t>
-        </is>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>49.817492</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>15.472962</t>
-        </is>
-      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -12120,15 +12096,15 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -12149,103 +12125,127 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Australië</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>20</v>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>20</v>
-      </c>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr"/>
-      <c r="G371" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Verenigde Koninkrijk</t>
+          <t>Zwitserland</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>20</v>
-      </c>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr"/>
-      <c r="G372" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>49.817492</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>15.472962</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>20</v>
-      </c>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>België</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -12253,11 +12253,11 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr"/>
@@ -12266,56 +12266,56 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>20</v>
-      </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Nederlan</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>20</v>
-      </c>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -12324,15 +12324,15 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -12353,23 +12353,35 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>20</v>
-      </c>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -12378,15 +12390,15 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -12407,73 +12419,73 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>2.213749</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Frankrijk</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>46.227638</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>2.213749</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>Australië</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -12481,11 +12493,11 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E382" t="inlineStr"/>
       <c r="F382" t="inlineStr"/>
@@ -12494,15 +12506,15 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -12510,119 +12522,107 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Australië</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D384" t="n">
         <v>21</v>
       </c>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr"/>
-      <c r="G384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D385" t="n">
         <v>21</v>
       </c>
-      <c r="E385" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Zwitserland</t>
+          <t>Zuid-Afrika</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D386" t="n">
         <v>21</v>
       </c>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t>CHE</t>
-        </is>
-      </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>49.817492</t>
-        </is>
-      </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>15.472962</t>
-        </is>
-      </c>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Duitsland</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -12630,45 +12630,57 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>52.132633</t>
+          <t>51.165691</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>5.291266</t>
+          <t>10.451526</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D388" t="n">
         <v>21</v>
       </c>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr"/>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>België</t>
+          <t>Bulgarije</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -12676,7 +12688,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -12689,35 +12701,23 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D390" t="n">
         <v>21</v>
       </c>
-      <c r="E390" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -12726,11 +12726,11 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D391" t="n">
@@ -12755,7 +12755,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Noorwegen</t>
+          <t>Italië</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -12763,60 +12763,36 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D392" t="n">
         <v>21</v>
       </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>NOR</t>
-        </is>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>60.472024</t>
-        </is>
-      </c>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>8.468946</t>
-        </is>
-      </c>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Egypte</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D393" t="n">
         <v>21</v>
       </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -12829,7 +12805,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -12854,7 +12830,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>Frankrijk</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -12862,61 +12838,61 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D395" t="n">
         <v>21</v>
       </c>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr"/>
-      <c r="G395" t="inlineStr"/>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>46.227638</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>2.213749</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Ierland</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D396" t="n">
         <v>21</v>
       </c>
-      <c r="E396" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -12924,24 +12900,24 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>2.213749</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -12949,86 +12925,74 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D398" t="n">
         <v>21</v>
       </c>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>51.165691</t>
-        </is>
-      </c>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>10.451526</t>
-        </is>
-      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Australië</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D399" t="n">
         <v>21</v>
       </c>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr"/>
-      <c r="G399" t="inlineStr"/>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D400" t="n">
         <v>21</v>
       </c>
-      <c r="E400" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Zuid-Afrika</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -13036,7 +13000,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D401" t="n">
@@ -13049,15 +13013,15 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Duitsland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -13065,24 +13029,24 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>51.165691</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>10.451526</t>
+          <t>5.291266</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australië</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -13090,7 +13054,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -13103,40 +13067,28 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D404" t="n">
         <v>21</v>
       </c>
-      <c r="E404" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
+          <t>Verenigd Koninkrijk</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -13144,7 +13096,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -13157,157 +13109,181 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Bulgarije</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D406" t="n">
         <v>21</v>
       </c>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr"/>
-      <c r="G406" t="inlineStr"/>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D407" t="n">
         <v>21</v>
       </c>
-      <c r="E407" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Egypte</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D408" t="n">
         <v>21</v>
       </c>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr"/>
-      <c r="G408" t="inlineStr"/>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Italië</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D409" t="n">
         <v>21</v>
       </c>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr"/>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Nederland</t>
+          <t>Verenigde Staten</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D410" t="n">
         <v>21</v>
       </c>
-      <c r="E410" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Ierland</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D411" t="n">
         <v>21</v>
       </c>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>52.132633</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>5.291266</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Frankrijk</t>
+          <t>Nederland</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -13315,7 +13291,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -13323,447 +13299,15 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>46.227638</t>
+          <t>52.132633</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
-        <is>
-          <t>2.213749</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>Nederland</t>
-        </is>
-      </c>
-      <c r="B413" t="n">
-        <v>13</v>
-      </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="D413" t="n">
-        <v>21</v>
-      </c>
-      <c r="E413" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B414" t="n">
-        <v>1</v>
-      </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="D414" t="n">
-        <v>21</v>
-      </c>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>Nederland</t>
-        </is>
-      </c>
-      <c r="B415" t="n">
-        <v>11</v>
-      </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="D415" t="n">
-        <v>21</v>
-      </c>
-      <c r="E415" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>Verenigd Koninkrijk, Engeland</t>
-        </is>
-      </c>
-      <c r="B416" t="n">
-        <v>1</v>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="D416" t="n">
-        <v>21</v>
-      </c>
-      <c r="E416" t="inlineStr"/>
-      <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="B417" t="n">
-        <v>1</v>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="D417" t="n">
-        <v>21</v>
-      </c>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr"/>
-      <c r="G417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>Nederland</t>
-        </is>
-      </c>
-      <c r="B418" t="n">
-        <v>11</v>
-      </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="D418" t="n">
-        <v>21</v>
-      </c>
-      <c r="E418" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="B419" t="n">
-        <v>1</v>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="D419" t="n">
-        <v>21</v>
-      </c>
-      <c r="E419" t="inlineStr"/>
-      <c r="F419" t="inlineStr"/>
-      <c r="G419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>Verenigde Koninkrijk</t>
-        </is>
-      </c>
-      <c r="B420" t="n">
-        <v>1</v>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="D420" t="n">
-        <v>21</v>
-      </c>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>Australië</t>
-        </is>
-      </c>
-      <c r="B421" t="n">
-        <v>1</v>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="D421" t="n">
-        <v>21</v>
-      </c>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr"/>
-      <c r="G421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>Nederland</t>
-        </is>
-      </c>
-      <c r="B422" t="n">
-        <v>6</v>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="D422" t="n">
-        <v>21</v>
-      </c>
-      <c r="E422" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="B423" t="n">
-        <v>1</v>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="D423" t="n">
-        <v>21</v>
-      </c>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr"/>
-      <c r="G423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>Nederland</t>
-        </is>
-      </c>
-      <c r="B424" t="n">
-        <v>6</v>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="D424" t="n">
-        <v>21</v>
-      </c>
-      <c r="E424" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>Nederland</t>
-        </is>
-      </c>
-      <c r="B425" t="n">
-        <v>4</v>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="D425" t="n">
-        <v>21</v>
-      </c>
-      <c r="E425" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>U.S.A.</t>
-        </is>
-      </c>
-      <c r="B426" t="n">
-        <v>1</v>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="D426" t="n">
-        <v>21</v>
-      </c>
-      <c r="E426" t="inlineStr"/>
-      <c r="F426" t="inlineStr"/>
-      <c r="G426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>Nederland</t>
-        </is>
-      </c>
-      <c r="B427" t="n">
-        <v>8</v>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="D427" t="n">
-        <v>21</v>
-      </c>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>5.291266</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>Nederland</t>
-        </is>
-      </c>
-      <c r="B428" t="n">
-        <v>1</v>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="D428" t="n">
-        <v>21</v>
-      </c>
-      <c r="E428" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="F428" t="inlineStr">
-        <is>
-          <t>52.132633</t>
-        </is>
-      </c>
-      <c r="G428" t="inlineStr">
         <is>
           <t>5.291266</t>
         </is>
